--- a/Lotofac_hist.xlsx
+++ b/Lotofac_hist.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,18 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -45,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,42 +47,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,7 +428,7 @@
   </sheetPr>
   <dimension ref="A1:CCT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -106838,7 +106812,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -106857,450 +106831,650 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>All long</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Last 200</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Last 100</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Last 50</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C2" t="n">
-        <v>110</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1280 (1275)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>110 (120)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56 (60)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28 (30)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1281</v>
-      </c>
-      <c r="C3" t="n">
-        <v>113</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55</v>
-      </c>
-      <c r="E3" t="n">
-        <v>29</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1281 (1275)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>113 (120)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55 (60)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29 (30)</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1290</v>
-      </c>
-      <c r="C4" t="n">
-        <v>128</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1290 (1275)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>128 (120)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58 (60)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25 (30)</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1292</v>
-      </c>
-      <c r="C5" t="n">
-        <v>124</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28</v>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1292 (1275)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>124 (120)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59 (60)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28 (30)</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1279</v>
-      </c>
-      <c r="C6" t="n">
-        <v>121</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59</v>
-      </c>
-      <c r="E6" t="n">
-        <v>31</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1279 (1275)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>121 (120)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59 (60)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31 (30)</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="C7" t="n">
-        <v>107</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26</v>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1231 (1275)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>107 (120)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49 (60)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26 (30)</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C8" t="n">
-        <v>110</v>
-      </c>
-      <c r="D8" t="n">
-        <v>53</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26</v>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1240 (1275)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>110 (120)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53 (60)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26 (30)</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1212</v>
-      </c>
-      <c r="C9" t="n">
-        <v>113</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1212 (1275)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>113 (120)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57 (60)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33 (30)</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>128</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1263 (1275)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>128 (120)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67 (60)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37 (30)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1315</v>
-      </c>
-      <c r="C11" t="n">
-        <v>136</v>
-      </c>
-      <c r="D11" t="n">
-        <v>65</v>
-      </c>
-      <c r="E11" t="n">
-        <v>35</v>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1315 (1275)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>136 (120)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65 (60)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35 (30)</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1298</v>
-      </c>
-      <c r="C12" t="n">
-        <v>116</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29</v>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1298 (1275)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>116 (120)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56 (60)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29 (30)</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1266</v>
-      </c>
-      <c r="C13" t="n">
-        <v>125</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64</v>
-      </c>
-      <c r="E13" t="n">
-        <v>31</v>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1266 (1275)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>125 (120)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64 (60)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31 (30)</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C14" t="n">
-        <v>121</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27</v>
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1312 (1275)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>121 (120)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60 (60)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27 (30)</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1286</v>
-      </c>
-      <c r="C15" t="n">
-        <v>114</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33</v>
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1286 (1275)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>114 (120)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63 (60)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33 (30)</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C16" t="n">
-        <v>116</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1265 (1275)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>116 (120)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58 (60)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30 (30)</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C17" t="n">
-        <v>122</v>
-      </c>
-      <c r="D17" t="n">
-        <v>60</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29</v>
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1225 (1275)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>122 (120)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60 (60)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29 (30)</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1270</v>
-      </c>
-      <c r="C18" t="n">
-        <v>119</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30</v>
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1270 (1275)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>119 (120)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>62 (60)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30 (30)</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1272</v>
-      </c>
-      <c r="C19" t="n">
-        <v>115</v>
-      </c>
-      <c r="D19" t="n">
-        <v>63</v>
-      </c>
-      <c r="E19" t="n">
-        <v>33</v>
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1272 (1275)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>115 (120)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>63 (60)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33 (30)</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C20" t="n">
-        <v>125</v>
-      </c>
-      <c r="D20" t="n">
-        <v>64</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1280 (1275)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>125 (120)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>64 (60)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29 (30)</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1308</v>
-      </c>
-      <c r="C21" t="n">
-        <v>135</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67</v>
-      </c>
-      <c r="E21" t="n">
-        <v>34</v>
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1308 (1275)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>135 (120)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67 (60)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34 (30)</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1261</v>
-      </c>
-      <c r="C22" t="n">
-        <v>112</v>
-      </c>
-      <c r="D22" t="n">
-        <v>63</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30</v>
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1261 (1275)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>112 (120)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>63 (60)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30 (30)</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1273</v>
-      </c>
-      <c r="C23" t="n">
-        <v>123</v>
-      </c>
-      <c r="D23" t="n">
-        <v>57</v>
-      </c>
-      <c r="E23" t="n">
-        <v>27</v>
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1273 (1275)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>123 (120)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57 (60)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27 (30)</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1269</v>
-      </c>
-      <c r="C24" t="n">
-        <v>114</v>
-      </c>
-      <c r="D24" t="n">
-        <v>51</v>
-      </c>
-      <c r="E24" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1269 (1275)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>114 (120)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>51 (60)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22 (30)</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1311</v>
-      </c>
-      <c r="C25" t="n">
-        <v>124</v>
-      </c>
-      <c r="D25" t="n">
-        <v>63</v>
-      </c>
-      <c r="E25" t="n">
-        <v>32</v>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1311 (1275)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>124 (120)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>63 (60)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32 (30)</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1296</v>
-      </c>
-      <c r="C26" t="n">
-        <v>129</v>
-      </c>
-      <c r="D26" t="n">
-        <v>71</v>
-      </c>
-      <c r="E26" t="n">
-        <v>36</v>
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1296 (1275)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>129 (120)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>71 (60)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36 (30)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Lotofac_hist.xlsx
+++ b/Lotofac_hist.xlsx
@@ -106822,7 +106822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -106833,22 +106833,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>All long</t>
+          <t>Seen_value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Last 200</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Last 100</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Last 50</t>
+          <t>Expected_value</t>
         </is>
       </c>
     </row>
@@ -106856,625 +106846,275 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1280 (1275)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>110 (120)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56 (60)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28 (30)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1281 (1275)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>113 (120)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55 (60)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29 (30)</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1281</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1290 (1275)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>128 (120)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>58 (60)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25 (30)</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1292 (1275)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>124 (120)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>59 (60)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28 (30)</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1279 (1275)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>121 (120)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>59 (60)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31 (30)</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1231 (1275)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>107 (120)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49 (60)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26 (30)</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1240 (1275)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>110 (120)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>53 (60)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26 (30)</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1212 (1275)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>113 (120)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>57 (60)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33 (30)</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1263 (1275)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>128 (120)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>67 (60)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37 (30)</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1315 (1275)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>136 (120)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>65 (60)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35 (30)</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1315</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1298 (1275)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>116 (120)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>56 (60)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29 (30)</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1266 (1275)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>125 (120)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>64 (60)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>31 (30)</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1312 (1275)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>121 (120)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>60 (60)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27 (30)</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1286 (1275)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>114 (120)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>63 (60)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>33 (30)</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1265 (1275)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>116 (120)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>58 (60)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30 (30)</t>
-        </is>
+      <c r="B16" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1225 (1275)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>122 (120)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>60 (60)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29 (30)</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1270 (1275)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>119 (120)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>62 (60)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30 (30)</t>
-        </is>
+      <c r="B18" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1272 (1275)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>115 (120)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>63 (60)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33 (30)</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1280 (1275)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>125 (120)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>64 (60)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29 (30)</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1308 (1275)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>135 (120)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>67 (60)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>34 (30)</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1261 (1275)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>112 (120)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>63 (60)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>30 (30)</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1273 (1275)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>123 (120)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>57 (60)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>27 (30)</t>
-        </is>
+      <c r="B23" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1269 (1275)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>114 (120)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>51 (60)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>22 (30)</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1311 (1275)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>124 (120)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>63 (60)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>32 (30)</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1296 (1275)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>129 (120)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>71 (60)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>36 (30)</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1275</v>
       </c>
     </row>
   </sheetData>

--- a/Lotofac_hist.xlsx
+++ b/Lotofac_hist.xlsx
@@ -106833,12 +106833,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Seen_value</t>
+          <t>Obs_value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Expected_value</t>
+          <t>Exp_value</t>
         </is>
       </c>
     </row>
